--- a/15_myhome/계층게시판.xlsx
+++ b/15_myhome/계층게시판.xlsx
@@ -4,18 +4,26 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.180.50690"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>계층형 게시판</t>
   </si>
@@ -152,6 +160,45 @@
     <t>원글과 같은 GROUP_NO를 가진 게시물 중에서
 원글의 GROUP_ORDER보다 큰 GROUP_ORDER값을 가진 게시물들의
 GROUP_ORDER값을 1씩 증가시킨다.</t>
+  </si>
+  <si>
+    <t>계층형 게시판(N차)</t>
+  </si>
+  <si>
+    <t>계층형 게시판(1차)</t>
+  </si>
+  <si>
+    <t>COMMENT_NO</t>
+  </si>
+  <si>
+    <t>반갑습니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴ네</t>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+  </si>
+  <si>
+    <t>HELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴ넵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴHI</t>
+  </si>
+  <si>
+    <t>정렬 X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴHIIII</t>
+  </si>
+  <si>
+    <t>GROUP_NO DESC, DEPTH ASC, COMMENT_NO DESC</t>
+  </si>
+  <si>
+    <t>정렬 O</t>
   </si>
 </sst>
 </file>
@@ -291,7 +338,7 @@
       <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,8 +534,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -508,7 +567,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -517,7 +575,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -526,7 +583,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -535,7 +591,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -550,7 +605,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -565,7 +619,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -580,7 +633,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -589,7 +641,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -600,7 +651,280 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.150000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -752,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +1087,126 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="35" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1100,7 +1544,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1504,4 +1948,324 @@
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="18.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="11.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="11.75500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
+        <v>3</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="0">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="0">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="42">
+        <v>4</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="42">
+        <v>0</v>
+      </c>
+      <c r="D23" s="42">
+        <v>4</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="42">
+        <v>7</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="42">
+        <v>1</v>
+      </c>
+      <c r="D24" s="42">
+        <v>4</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="42">
+        <v>6</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="42">
+        <v>1</v>
+      </c>
+      <c r="D25" s="42">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="43">
+        <v>3</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="42">
+        <v>5</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="42">
+        <v>1</v>
+      </c>
+      <c r="D27" s="42">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="42">
+        <v>1</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="42">
+        <v>0</v>
+      </c>
+      <c r="D28" s="42">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="42">
+        <v>2</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="42">
+        <v>1</v>
+      </c>
+      <c r="D29" s="42">
+        <v>1</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="F23:F29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>